--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N2">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O2">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P2">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q2">
-        <v>0.3292681347122222</v>
+        <v>3.368797096902222</v>
       </c>
       <c r="R2">
-        <v>2.96341321241</v>
+        <v>30.31917387212</v>
       </c>
       <c r="S2">
-        <v>0.02167953879576614</v>
+        <v>0.162900937995511</v>
       </c>
       <c r="T2">
-        <v>0.02167953879576615</v>
+        <v>0.162900937995511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>14.620227</v>
       </c>
       <c r="O3">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P3">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q3">
         <v>1.926637269363333</v>
@@ -632,10 +632,10 @@
         <v>17.33973542427</v>
       </c>
       <c r="S3">
-        <v>0.1268528685991336</v>
+        <v>0.09316412040517331</v>
       </c>
       <c r="T3">
-        <v>0.1268528685991336</v>
+        <v>0.09316412040517334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O4">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P4">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q4">
         <v>6.149721322632222</v>
@@ -694,10 +694,10 @@
         <v>55.34749190368999</v>
       </c>
       <c r="S4">
-        <v>0.404907453658335</v>
+        <v>0.2973748026525505</v>
       </c>
       <c r="T4">
-        <v>0.4049074536583351</v>
+        <v>0.2973748026525506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N5">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O5">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P5">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q5">
-        <v>0.2656802199032222</v>
+        <v>2.718218555514222</v>
       </c>
       <c r="R5">
-        <v>2.391121979129</v>
+        <v>24.463966999628</v>
       </c>
       <c r="S5">
-        <v>0.01749280913469999</v>
+        <v>0.1314416807047379</v>
       </c>
       <c r="T5">
-        <v>0.01749280913469999</v>
+        <v>0.1314416807047379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>14.620227</v>
       </c>
       <c r="O6">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P6">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q6">
         <v>1.554567112440333</v>
@@ -818,10 +818,10 @@
         <v>13.991104011963</v>
       </c>
       <c r="S6">
-        <v>0.1023551764407081</v>
+        <v>0.07517236375748797</v>
       </c>
       <c r="T6">
-        <v>0.1023551764407081</v>
+        <v>0.07517236375748798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O7">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P7">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q7">
         <v>4.962093628551222</v>
@@ -880,10 +880,10 @@
         <v>44.65884265696099</v>
       </c>
       <c r="S7">
-        <v>0.3267121533713571</v>
+        <v>0.2399460944845394</v>
       </c>
       <c r="T7">
-        <v>0.3267121533713571</v>
+        <v>0.2399460944845394</v>
       </c>
     </row>
   </sheetData>
